--- a/medicine/Psychotrope/Brasserie_Palm/Brasserie_Palm.xlsx
+++ b/medicine/Psychotrope/Brasserie_Palm/Brasserie_Palm.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La brasserie Palm (en néerlandais : Brouwerij Palm) est une brasserie située  à Steenhuffel (commune de Londerzeel) dans la province du Brabant flamand en Belgique. Elle fait partie du groupe brassicole Palm Belgian Craft Brewers. La brasserie est connue principalement pour la production de la Palm, bière la plus vendue en Belgique et aux Pays-Bas en 2017[1].
+La brasserie Palm (en néerlandais : Brouwerij Palm) est une brasserie située  à Steenhuffel (commune de Londerzeel) dans la province du Brabant flamand en Belgique. Elle fait partie du groupe brassicole Palm Belgian Craft Brewers. La brasserie est connue principalement pour la production de la Palm, bière la plus vendue en Belgique et aux Pays-Bas en 2017.
 </t>
         </is>
       </c>
@@ -514,17 +526,19 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Origine
-L'histoire de Palm commence en 1597 par la signature d'un acte de vente d'une ferme. Les archives de la commune de Steenhuffel mentionnent l'acte de vente d'une ferme nommée Den Hoorn située en face de l'église, le long de la route menant d'Alost à Malines. En 1686, Theodoor Cornet tient une auberge où il brasse régulièrement comme le font de nombreux habitants à cette époque.
+          <t>Origine</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'histoire de Palm commence en 1597 par la signature d'un acte de vente d'une ferme. Les archives de la commune de Steenhuffel mentionnent l'acte de vente d'une ferme nommée Den Hoorn située en face de l'église, le long de la route menant d'Alost à Malines. En 1686, Theodoor Cornet tient une auberge où il brasse régulièrement comme le font de nombreux habitants à cette époque.
 Il faut cependant attendre 1747 pour trouver des traces officielles d'une activité brassicole à Steenhuffel. Cette année voit la transformation de l'auberge en une brasserie par Anne Cornet. Un recensement de la population sous l'Ancien Régime donne le comptage du nombre de commerçants parmi lesquels figurent deux brasseries De Hoorn et De Valck. La brasserie De Hoorn, propriété de Jean-Baptiste De Mesmaecker, se développe et devient la brasserie de bières spéciales Palm.
 En 1908 Henriette De Mesmaecker, petite-fille de Jean-Baptiste De Mesmaecker se marie avec Arthur Van Roy. Ce dernier donne une nouvelle impulsion à la production de la bière. Malgré l'arrivée du succès des bières pils il s'accroche à la fabrication de sa bière traditionnelle à fermentation haute et donne ainsi une priorité à la continuité et à la spécificité de sa bière régionale.
 La brasserie est complètement détruite au cours de la Première Guerre mondiale. Arthur Van Roy la reconstruit et l'agrandit immédiatement. Il croit au succès de sa bière traditionnelle à fermentation haute, même au-delà des frontières villageoises. En 1929 sa bière de Steenhuffel est renommée Speciale Palm. Spéciale en raison de Spéciale Belge et Palm en raison de la victoire de la bière à fermentation haute sur la toujours plus populaire pils. Après la Seconde Guerre mondiale, Alfred Van Roy, le fils d'Arthur prend les commandes de l'entreprise en la développant.
 En 1974, brasserie De Hoorn prend le nom de sa bière vedette et devient la brasserie Palm. Quelques années plus tard, Jan Toye, un neveu d'Alfred Van Roy poursuit l'expansion de l'entreprise. En outre, il s'associe avec la brasserie Boon en 1989.
-Une bière est lancée à l'occasion du 90e anniversaire d'Alfred Van Roy, la Palm Royal. Il décède en 2009, cinq ans plus tard[2].
+Une bière est lancée à l'occasion du 90e anniversaire d'Alfred Van Roy, la Palm Royal. Il décède en 2009, cinq ans plus tard.
 La brasserie fait partie de l'association brassicole Belgian Family Brewers.
-Rachat par Bavaria
-En 2016, le brasseur néerlandais Bavaria rachète les bières Palm[3].
-En 2017, la maison mère de Palm annonce qu'elle va investir 20 millions d'euros sur le site de Steenhuffel[1].
 </t>
         </is>
       </c>
@@ -550,10 +564,50 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Rachat par Bavaria</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2016, le brasseur néerlandais Bavaria rachète les bières Palm.
+En 2017, la maison mère de Palm annonce qu'elle va investir 20 millions d'euros sur le site de Steenhuffel.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Brasserie_Palm</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brasserie_Palm</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Bières</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Palm, une bière spéciale se déclinant en cinq variétés :
 Palm, une bière ambrée titrant 5,2 % d'alcool
@@ -572,37 +626,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Brasserie_Palm</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Brasserie_Palm</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Autre brasserie du groupe</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Palm Belgian Craft Brewers, faisant partie du groupe Bavaria, contrôle aussi la Brasserie Rodenbach.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -624,10 +647,45 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Autre brasserie du groupe</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Palm Belgian Craft Brewers, faisant partie du groupe Bavaria, contrôle aussi la Brasserie Rodenbach.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Brasserie_Palm</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brasserie_Palm</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Château de Diepensteyn et son haras</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le symbole de la brasserie Palm est le cheval de trait belge. La brasserie a contribué à la protection de la race en élevant plusieurs spécimens dans le haras du château Diepensteyn.
 </t>
